--- a/www/IndicatorsPerCountry/Egypt_GDPperCapita_TerritorialRef_1979_2012_CCode_818.xlsx
+++ b/www/IndicatorsPerCountry/Egypt_GDPperCapita_TerritorialRef_1979_2012_CCode_818.xlsx
@@ -258,13 +258,13 @@
     <t>Bolt, Jutta and Jan Luiten van Zanden (2015). GDP per Capita. http://hdl.handle.net/10622/8FCYOX, accessed via the Clio Infra website.</t>
   </si>
   <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.xml</t>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.xml</t>
   </si>
   <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.ris</t>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.ris</t>
   </si>
   <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.bib</t>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.bib</t>
   </si>
 </sst>
 </file>

--- a/www/IndicatorsPerCountry/Egypt_GDPperCapita_TerritorialRef_1979_2012_CCode_818.xlsx
+++ b/www/IndicatorsPerCountry/Egypt_GDPperCapita_TerritorialRef_1979_2012_CCode_818.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1550" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1568" uniqueCount="90">
   <si>
     <t>Country Code</t>
   </si>
@@ -36,199 +36,217 @@
     <t>GDP per Capita</t>
   </si>
   <si>
-    <t>680</t>
+    <t>1084</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>475</t>
+    <t>956</t>
   </si>
   <si>
-    <t>649</t>
+    <t>1195</t>
   </si>
   <si>
-    <t>902</t>
+    <t>1674</t>
   </si>
   <si>
-    <t>910</t>
+    <t>1926</t>
   </si>
   <si>
-    <t>905</t>
+    <t>1443</t>
   </si>
   <si>
-    <t>900</t>
+    <t>1435</t>
   </si>
   <si>
-    <t>894</t>
+    <t>1425</t>
   </si>
   <si>
-    <t>889</t>
+    <t>1417</t>
   </si>
   <si>
-    <t>885</t>
+    <t>1411</t>
   </si>
   <si>
-    <t>925</t>
+    <t>1474</t>
   </si>
   <si>
-    <t>947</t>
+    <t>1510</t>
   </si>
   <si>
-    <t>969</t>
+    <t>1545</t>
   </si>
   <si>
-    <t>991</t>
+    <t>1580</t>
   </si>
   <si>
-    <t>1031</t>
+    <t>1643</t>
   </si>
   <si>
-    <t>1074</t>
+    <t>1712</t>
   </si>
   <si>
-    <t>1120</t>
+    <t>1785</t>
   </si>
   <si>
-    <t>1166</t>
+    <t>1859</t>
   </si>
   <si>
-    <t>1213</t>
+    <t>1934</t>
   </si>
   <si>
-    <t>1192</t>
+    <t>1900</t>
   </si>
   <si>
-    <t>1151</t>
+    <t>1835</t>
   </si>
   <si>
-    <t>1146</t>
+    <t>1827</t>
   </si>
   <si>
-    <t>1201</t>
+    <t>1914</t>
   </si>
   <si>
-    <t>1254</t>
+    <t>1999</t>
   </si>
   <si>
-    <t>1283</t>
+    <t>2045</t>
   </si>
   <si>
-    <t>1284</t>
+    <t>2047</t>
   </si>
   <si>
-    <t>1294</t>
+    <t>2063</t>
   </si>
   <si>
-    <t>1317</t>
+    <t>2099</t>
   </si>
   <si>
-    <t>1421</t>
+    <t>2265</t>
   </si>
   <si>
-    <t>1606</t>
+    <t>2560</t>
   </si>
   <si>
-    <t>1767</t>
+    <t>2817</t>
   </si>
   <si>
-    <t>1844</t>
+    <t>2939</t>
   </si>
   <si>
-    <t>1930</t>
+    <t>3076</t>
   </si>
   <si>
-    <t>2069</t>
+    <t>3298</t>
   </si>
   <si>
-    <t>2076</t>
+    <t>3309</t>
   </si>
   <si>
-    <t>2223</t>
+    <t>3543</t>
   </si>
   <si>
-    <t>2322</t>
+    <t>3701</t>
   </si>
   <si>
-    <t>2390</t>
+    <t>3810</t>
   </si>
   <si>
-    <t>2471</t>
+    <t>3939</t>
   </si>
   <si>
-    <t>2460</t>
+    <t>3921</t>
   </si>
   <si>
-    <t>2465</t>
+    <t>3929</t>
   </si>
   <si>
-    <t>2510</t>
+    <t>4001</t>
   </si>
   <si>
-    <t>2528</t>
+    <t>4030</t>
   </si>
   <si>
-    <t>2522.79245957</t>
+    <t>4022</t>
   </si>
   <si>
-    <t>2531.77218842</t>
+    <t>4180.13260407273</t>
   </si>
   <si>
-    <t>2505.13579527</t>
+    <t>4338.95375321204</t>
   </si>
   <si>
-    <t>2543.67469015</t>
+    <t>4542.63247252534</t>
   </si>
   <si>
-    <t>2614.98486789</t>
+    <t>4746.58823875865</t>
   </si>
   <si>
-    <t>2695.7131349</t>
+    <t>5001.06669148232</t>
   </si>
   <si>
-    <t>2788.77620459</t>
+    <t>5293.10050397733</t>
   </si>
   <si>
-    <t>2890.2882653</t>
+    <t>5594.59715288472</t>
   </si>
   <si>
-    <t>3041.57160912</t>
+    <t>5884.8017830893</t>
   </si>
   <si>
-    <t>3158.48670166</t>
+    <t>6211.01580215799</t>
   </si>
   <si>
-    <t>3257.76953388</t>
+    <t>6593.5317930907</t>
   </si>
   <si>
-    <t>3300.86606101</t>
+    <t>6914.9367688433</t>
   </si>
   <si>
-    <t>3333.45765129</t>
+    <t>7142.68639186596</t>
   </si>
   <si>
-    <t>3366.72151937</t>
+    <t>7365.80272539069</t>
   </si>
   <si>
-    <t>3430.08636799</t>
+    <t>7661.85985868625</t>
   </si>
   <si>
-    <t>3507.69310887</t>
+    <t>8021.88348042856</t>
   </si>
   <si>
-    <t>3669.00209014</t>
+    <t>8509.61435797397</t>
   </si>
   <si>
-    <t>3847.23281968</t>
+    <t>9130.59790865429</t>
   </si>
   <si>
-    <t>4037.70757047</t>
+    <t>9698.01663832814</t>
   </si>
   <si>
-    <t>4140.67954533</t>
+    <t>10159.0021939519</t>
   </si>
   <si>
-    <t>4266.9581158</t>
+    <t>10719.2912921624</t>
+  </si>
+  <si>
+    <t>10737</t>
+  </si>
+  <si>
+    <t>10767</t>
+  </si>
+  <si>
+    <t>10775</t>
+  </si>
+  <si>
+    <t>11016</t>
+  </si>
+  <si>
+    <t>11159</t>
+  </si>
+  <si>
+    <t>11351</t>
   </si>
   <si>
     <t>Description</t>
@@ -9019,6 +9037,108 @@
         <v>71</v>
       </c>
     </row>
+    <row r="513">
+      <c r="A513" t="n">
+        <v>818.0</v>
+      </c>
+      <c r="B513" t="s">
+        <v>5</v>
+      </c>
+      <c r="C513" t="s">
+        <v>6</v>
+      </c>
+      <c r="D513" t="n">
+        <v>2011.0</v>
+      </c>
+      <c r="E513" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" t="n">
+        <v>818.0</v>
+      </c>
+      <c r="B514" t="s">
+        <v>5</v>
+      </c>
+      <c r="C514" t="s">
+        <v>6</v>
+      </c>
+      <c r="D514" t="n">
+        <v>2012.0</v>
+      </c>
+      <c r="E514" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" t="n">
+        <v>818.0</v>
+      </c>
+      <c r="B515" t="s">
+        <v>5</v>
+      </c>
+      <c r="C515" t="s">
+        <v>6</v>
+      </c>
+      <c r="D515" t="n">
+        <v>2013.0</v>
+      </c>
+      <c r="E515" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" t="n">
+        <v>818.0</v>
+      </c>
+      <c r="B516" t="s">
+        <v>5</v>
+      </c>
+      <c r="C516" t="s">
+        <v>6</v>
+      </c>
+      <c r="D516" t="n">
+        <v>2014.0</v>
+      </c>
+      <c r="E516" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" t="n">
+        <v>818.0</v>
+      </c>
+      <c r="B517" t="s">
+        <v>5</v>
+      </c>
+      <c r="C517" t="s">
+        <v>6</v>
+      </c>
+      <c r="D517" t="n">
+        <v>2015.0</v>
+      </c>
+      <c r="E517" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" t="n">
+        <v>818.0</v>
+      </c>
+      <c r="B518" t="s">
+        <v>5</v>
+      </c>
+      <c r="C518" t="s">
+        <v>6</v>
+      </c>
+      <c r="D518" t="n">
+        <v>2016.0</v>
+      </c>
+      <c r="E518" t="s">
+        <v>77</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -9034,50 +9154,50 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="B1" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="B2" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="B3" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="B4" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="B5" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="B6" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
